--- a/gpus_comparacao.xlsx
+++ b/gpus_comparacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Transferências\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Documents\GitHub\PrivateCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C937AE6-F5DC-42A4-91C7-F195CE7A22D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E785D14-34E9-4D4F-85CB-357F0B46A367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="975" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Placa</t>
   </si>
@@ -104,6 +104,108 @@
   </si>
   <si>
     <t>Consumo</t>
+  </si>
+  <si>
+    <t>Característica</t>
+  </si>
+  <si>
+    <t>NVIDIA RTX 6000 Ada 48GB</t>
+  </si>
+  <si>
+    <t>NVIDIA L40S 48GB</t>
+  </si>
+  <si>
+    <t>NVIDIA A100 80GB</t>
+  </si>
+  <si>
+    <t>18.176</t>
+  </si>
+  <si>
+    <t>6.912</t>
+  </si>
+  <si>
+    <t>Tensor Cores</t>
+  </si>
+  <si>
+    <t>568 (4ª geração)</t>
+  </si>
+  <si>
+    <t>432 (3ª geração)</t>
+  </si>
+  <si>
+    <t>RT Cores</t>
+  </si>
+  <si>
+    <t>Não especificado</t>
+  </si>
+  <si>
+    <t>Memória</t>
+  </si>
+  <si>
+    <t>80 GB HBM2e</t>
+  </si>
+  <si>
+    <t>Interface de Memória</t>
+  </si>
+  <si>
+    <t>384 bits</t>
+  </si>
+  <si>
+    <t>5.120 bits</t>
+  </si>
+  <si>
+    <t>Largura de Banda de Memória</t>
+  </si>
+  <si>
+    <t>960 GB/s</t>
+  </si>
+  <si>
+    <t>864 GB/s</t>
+  </si>
+  <si>
+    <t>2.000 GB/s</t>
+  </si>
+  <si>
+    <t>ECC (Error Correction Code)</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Potência (TDP)</t>
+  </si>
+  <si>
+    <t>350 W</t>
+  </si>
+  <si>
+    <t>PCIe 4.0 x16</t>
+  </si>
+  <si>
+    <t>MIG (Multi-Instance GPU)</t>
+  </si>
+  <si>
+    <t>Suportado</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>FP8 Desempenho</t>
+  </si>
+  <si>
+    <t>~1.457 TFLOPS</t>
+  </si>
+  <si>
+    <t>~1.466 TFLOPS</t>
+  </si>
+  <si>
+    <t>FP16 Desempenho</t>
+  </si>
+  <si>
+    <t>~91 TFLOPS</t>
+  </si>
+  <si>
+    <t>312 TFLOPS (sparse)</t>
   </si>
 </sst>
 </file>
@@ -135,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -207,11 +309,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,9 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +413,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,16 +736,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="3" customWidth="1"/>
@@ -584,19 +776,19 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>6144</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -604,19 +796,19 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>6144</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -624,19 +816,19 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>8192</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -644,19 +836,19 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>10752</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -664,40 +856,237 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>18432</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>18432</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9">
+        <v>142</v>
+      </c>
+      <c r="D16" s="9">
+        <v>142</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
